--- a/pirc/cs381v_project_results.xlsx
+++ b/pirc/cs381v_project_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Technique</t>
   </si>
@@ -23,10 +23,16 @@
     <t>Random</t>
   </si>
   <si>
-    <t>LeNet</t>
+    <t>LeNet, Full</t>
   </si>
   <si>
-    <t>CaffeNet, Comb.</t>
+    <t>LeNet, Full + Hard Neg</t>
+  </si>
+  <si>
+    <t>CaffeNet, Full</t>
+  </si>
+  <si>
+    <t>CaffeNet, Comb</t>
   </si>
   <si>
     <t>CaffeNet, Comb + Hard Neg</t>
@@ -63,12 +69,12 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Myriad Pro"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF595959"/>
       <name val="Myriad Pro"/>
@@ -194,7 +200,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -229,14 +235,14 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -250,9 +256,6 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -260,10 +263,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.140909090909091</c:v>
                 </c:pt>
@@ -277,9 +280,6 @@
                   <c:v>0.0149009900990099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00747512437810945</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0.00498892580287929</c:v>
                 </c:pt>
               </c:numCache>
@@ -312,14 +312,14 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -333,9 +333,6 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -343,10 +340,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
@@ -360,10 +357,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
+                  <c:v>0.0148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,14 +389,14 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -416,9 +410,6 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -426,37 +417,34 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.1593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0.081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>0.0463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0275</c:v>
+                  <c:v>0.0212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="39305757"/>
-        <c:axId val="19341939"/>
+        <c:axId val="51911691"/>
+        <c:axId val="28279165"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39305757"/>
+        <c:axId val="51911691"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +460,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1600">
+                  <a:rPr b="1" sz="1600">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -496,13 +484,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19341939"/>
+        <c:crossAx val="28279165"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19341939"/>
+        <c:axId val="28279165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:logBase val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -526,7 +515,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1600">
+                  <a:rPr b="1" sz="1600">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -550,7 +539,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39305757"/>
+        <c:crossAx val="51911691"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -588,15 +577,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:colOff>111960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>340920</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>367560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -604,8 +593,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2263680" y="1131840"/>
-        <a:ext cx="7085880" cy="3867120"/>
+        <a:off x="2291040" y="1427760"/>
+        <a:ext cx="6326280" cy="3561840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -623,19 +612,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
+      <selection pane="topLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5101214574899"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -652,9 +641,6 @@
         <v>200</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="G1" s="0" t="n">
         <v>600</v>
       </c>
     </row>
@@ -680,10 +666,6 @@
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">(1/(F1/2)+2/(F1/2+1))/2</f>
-        <v>0.00747512437810945</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">(1/(G1/2)+2/(G1/2+1))/2</f>
         <v>0.00498892580287929</v>
       </c>
     </row>
@@ -691,20 +673,87 @@
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <v>0.0148</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>0.0275</v>
+      <c r="B4" s="0" t="n">
+        <v>0.2627</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.1362</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0768</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.0441</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.0157</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="B5" s="0" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.1593</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.0463</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.0212</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.2212</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.1296</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.0748</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.0514</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.0275</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.2799</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.0799</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <f aca="false">0.0287</f>
         <v>0.0287</v>
       </c>
